--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1961.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1961.xlsx
@@ -354,10 +354,10 @@
         <v>1.470902356272768</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.221850202555837</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1961.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1961.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.030678770741748</v>
+        <v>1.101702451705933</v>
       </c>
       <c r="B1">
-        <v>1.470902356272768</v>
+        <v>2.092604637145996</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>9.370265960693359</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.406872510910034</v>
       </c>
       <c r="E1">
-        <v>1.221850202555837</v>
+        <v>1.292432427406311</v>
       </c>
     </row>
   </sheetData>
